--- a/Data/DataSet_01.xlsx
+++ b/Data/DataSet_01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\OneDrive\HS-Reutlingen\6. Semester\Semester Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" tabRatio="411" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -436,9 +436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K280" sqref="K280"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1068,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="0"/>
+        <f>((E15+F15)/I15)*100000</f>
         <v>510.78320090805903</v>
       </c>
       <c r="C15" s="7">
@@ -1112,7 +1112,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="0"/>
+        <f>((E16+F16)/I16)*100000</f>
         <v>387.97284190106694</v>
       </c>
       <c r="C16" s="7">
@@ -12673,7 +12673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
